--- a/dadosCH4/Teste.xlsx
+++ b/dadosCH4/Teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandr\OneDrive\Documentos\GitHub\Interface\Evandro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandr\OneDrive\Documentos\GitHub\AdsorptionSimulator\dadosCH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7EB57B-12DE-451F-9151-4B29C99DAF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F54BDD-05C1-4FDB-A788-515F67FBACBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="765" windowWidth="13500" windowHeight="11385" xr2:uid="{3C7DAD46-8CF1-4DCB-BEDB-9684AAF8C716}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C7DAD46-8CF1-4DCB-BEDB-9684AAF8C716}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -423,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71E8F04-C1DD-451C-A81D-3DE572CB30DF}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>298.14999999999998</v>
       </c>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>298.14999999999998</v>
       </c>
@@ -464,7 +464,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>298.14999999999998</v>
       </c>
@@ -475,7 +475,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>298.14999999999998</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>298.14999999999998</v>
       </c>
@@ -496,8 +496,12 @@
       <c r="C6">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>0.55261*0.6+C6</f>
+        <v>0.65756600000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>298.14999999999998</v>
       </c>
@@ -508,7 +512,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>298.14999999999998</v>
       </c>
@@ -519,7 +523,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>298.14999999999998</v>
       </c>
@@ -530,7 +534,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>298.14999999999998</v>
       </c>
@@ -541,7 +545,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>298.14999999999998</v>
       </c>
@@ -552,7 +556,7 @@
         <v>1.617</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>298.14999999999998</v>
       </c>
@@ -563,7 +567,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>298.14999999999998</v>
       </c>
@@ -574,7 +578,7 @@
         <v>2.3570000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>298.14999999999998</v>
       </c>
@@ -585,7 +589,7 @@
         <v>2.726</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>298.14999999999998</v>
       </c>
@@ -596,7 +600,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>298.14999999999998</v>
       </c>
